--- a/biology/Microbiologie/Haplosporidiidae/Haplosporidiidae.xlsx
+++ b/biology/Microbiologie/Haplosporidiidae/Haplosporidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haplosporidiidae[1] (syn. Haplosporiidae[2],[3]) sont une famille de protistes de l’ordre des Haplosporida.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haplosporidiidae (syn. Haplosporiidae,) sont une famille de protistes de l’ordre des Haplosporida.
 </t>
         </is>
       </c>
@@ -511,22 +523,24 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (30 août 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l'IRMNG  (30 août 2023) :
 Bonamia Pichot, Comps, Tigé, Grizel &amp; Rabouin, 1980
 Haplosporidium Caullery &amp; Mesnil, 1899
 Haplosporidium Lühe, 1900
 Mikrocytos Farley, Wolf &amp; Elston, 1988
 Minchinia Labbé, 1896
-Selon le World Register of Marine Species                               (30 août 2023)[3] :
+Selon le World Register of Marine Species                               (30 août 2023) :
 Bonamia Pichot, Comps, Tigé, Grizel &amp; Rabouin, 1980
 Haplosporidium Lühe, 1900
 Minchinia Labbé, 1896
-Selon The Taxonomicon  (30 août 2023)[1], BioLib                    (30 août 2023)[4] et le NCBI  (30 août 2023)[5] :
+Selon The Taxonomicon  (30 août 2023), BioLib                    (30 août 2023) et le NCBI  (30 août 2023) :
 Haplosporidium Caulery &amp; Mesnil, 1899
 Minchinia (Lankester, 1895) Labbé, 1896
-Selon le Catalogue of Life                                   (30 août 2023)[6] et l'ITIS      (30 août 2023)[7] :
+Selon le Catalogue of Life                                   (30 août 2023) et l'ITIS      (30 août 2023) :
 Haplosporidium</t>
         </is>
       </c>
